--- a/xlsx/country_comparison/radical_redistr_main.xlsx
+++ b/xlsx/country_comparison/radical_redistr_main.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -444,13 +447,16 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.691528998427824</v>
+        <v>0.697784139846227</v>
       </c>
       <c r="C2" t="n">
         <v>0.720631493007796</v>
@@ -480,18 +486,21 @@
         <v>0.686595580402783</v>
       </c>
       <c r="L2" t="n">
+        <v>0.751219542680628</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.811502784231898</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.617009579445299</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.628298895035096</v>
+        <v>0.640816894691591</v>
       </c>
       <c r="C3" t="n">
         <v>0.652513730140403</v>
@@ -521,18 +530,21 @@
         <v>0.552356963169043</v>
       </c>
       <c r="L3" t="n">
+        <v>0.758838356320826</v>
+      </c>
+      <c r="M3" t="n">
         <v>0.822096401408913</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.575856308665493</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.707938951979083</v>
+        <v>0.718622409738286</v>
       </c>
       <c r="C4" t="n">
         <v>0.771914246021119</v>
@@ -562,15 +574,18 @@
         <v>0.702350891319341</v>
       </c>
       <c r="L4" t="n">
+        <v>0.777791745530015</v>
+      </c>
+      <c r="M4" t="n">
         <v>0.923156195289579</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>0.561077706529787</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
         <v>0.456321149533914</v>
@@ -597,16 +612,17 @@
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
-      <c r="M5" t="n">
+      <c r="M5"/>
+      <c r="N5" t="n">
         <v>0.402384299767122</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.608592184837411</v>
+        <v>0.604372010208571</v>
       </c>
       <c r="C6" t="n">
         <v>0.607364609309633</v>
@@ -636,15 +652,18 @@
         <v>0.584459911958352</v>
       </c>
       <c r="L6" t="n">
+        <v>0.561863705947669</v>
+      </c>
+      <c r="M6" t="n">
         <v>0.880404476411078</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>0.55423991791735</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
         <v>0.557378520605093</v>
@@ -675,7 +694,8 @@
         <v>0.76</v>
       </c>
       <c r="L7"/>
-      <c r="M7" t="n">
+      <c r="M7"/>
+      <c r="N7" t="n">
         <v>0.44</v>
       </c>
     </row>

--- a/xlsx/country_comparison/radical_redistr_main.xlsx
+++ b/xlsx/country_comparison/radical_redistr_main.xlsx
@@ -64,8 +64,8 @@
 (Additional 15% tax over [$80k], 30% over [$120k], 45% over [$1M])</t>
   </si>
   <si>
-    <t xml:space="preserve">"Governments should actively cooperate to have
-all countries converge in terms of GDP per capita by the end of the century"</t>
+    <t xml:space="preserve">"Governments should actively cooperate to have all countries
+converge in terms of GDP per capita by the end of the century"</t>
   </si>
   <si>
     <t xml:space="preserve">Supports reparations for colonization and slavery in
@@ -456,7 +456,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.697784139846227</v>
+        <v>0.697581258153402</v>
       </c>
       <c r="C2" t="n">
         <v>0.720631493007796</v>
@@ -483,16 +483,16 @@
         <v>0.607824159400103</v>
       </c>
       <c r="K2" t="n">
-        <v>0.686595580402783</v>
+        <v>0.686659119892822</v>
       </c>
       <c r="L2" t="n">
-        <v>0.751219542680628</v>
+        <v>0.745847844531965</v>
       </c>
       <c r="M2" t="n">
         <v>0.811502784231898</v>
       </c>
       <c r="N2" t="n">
-        <v>0.617009579445299</v>
+        <v>0.617013940284116</v>
       </c>
     </row>
     <row r="3">
@@ -500,7 +500,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.640816894691591</v>
+        <v>0.641096347070675</v>
       </c>
       <c r="C3" t="n">
         <v>0.652513730140403</v>
@@ -527,16 +527,16 @@
         <v>0.409561977832253</v>
       </c>
       <c r="K3" t="n">
-        <v>0.552356963169043</v>
+        <v>0.552386382607627</v>
       </c>
       <c r="L3" t="n">
-        <v>0.758838356320826</v>
+        <v>0.752151504159109</v>
       </c>
       <c r="M3" t="n">
         <v>0.822096401408913</v>
       </c>
       <c r="N3" t="n">
-        <v>0.575856308665493</v>
+        <v>0.575861430623479</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.718622409738286</v>
+        <v>0.717914385961719</v>
       </c>
       <c r="C4" t="n">
         <v>0.771914246021119</v>
@@ -571,16 +571,16 @@
         <v>0.657996933412559</v>
       </c>
       <c r="K4" t="n">
-        <v>0.702350891319341</v>
+        <v>0.702372413171302</v>
       </c>
       <c r="L4" t="n">
-        <v>0.777791745530015</v>
+        <v>0.770988593693527</v>
       </c>
       <c r="M4" t="n">
         <v>0.923156195289579</v>
       </c>
       <c r="N4" t="n">
-        <v>0.561077706529787</v>
+        <v>0.561039368985046</v>
       </c>
     </row>
     <row r="5">
@@ -588,7 +588,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.456321149533914</v>
+        <v>0.456318549602673</v>
       </c>
       <c r="C5" t="n">
         <v>0.503463433986319</v>
@@ -614,7 +614,7 @@
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5" t="n">
-        <v>0.402384299767122</v>
+        <v>0.402452424604714</v>
       </c>
     </row>
     <row r="6">
@@ -622,7 +622,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.604372010208571</v>
+        <v>0.604334051757766</v>
       </c>
       <c r="C6" t="n">
         <v>0.607364609309633</v>
@@ -649,16 +649,16 @@
         <v>0.532287341883733</v>
       </c>
       <c r="K6" t="n">
-        <v>0.584459911958352</v>
+        <v>0.584541124690159</v>
       </c>
       <c r="L6" t="n">
-        <v>0.561863705947669</v>
+        <v>0.568089649263453</v>
       </c>
       <c r="M6" t="n">
         <v>0.880404476411078</v>
       </c>
       <c r="N6" t="n">
-        <v>0.55423991791735</v>
+        <v>0.55410364808233</v>
       </c>
     </row>
     <row r="7">
@@ -666,7 +666,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.557378520605093</v>
+        <v>0.55719177445442</v>
       </c>
       <c r="C7" t="n">
         <v>0.590740460977192</v>

--- a/xlsx/country_comparison/radical_redistr_main.xlsx
+++ b/xlsx/country_comparison/radical_redistr_main.xlsx
@@ -544,43 +544,43 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.717914385961719</v>
+        <v>0.716369766863604</v>
       </c>
       <c r="C4" t="n">
-        <v>0.771914246021119</v>
+        <v>0.772717497952248</v>
       </c>
       <c r="D4" t="n">
-        <v>0.766507263214252</v>
+        <v>0.768126880551711</v>
       </c>
       <c r="E4" t="n">
-        <v>0.753861130269913</v>
+        <v>0.754584861941685</v>
       </c>
       <c r="F4" t="n">
-        <v>0.872751022530446</v>
+        <v>0.87256696213353</v>
       </c>
       <c r="G4" t="n">
-        <v>0.843671983069324</v>
+        <v>0.844461583387313</v>
       </c>
       <c r="H4" t="n">
-        <v>0.839464506964056</v>
+        <v>0.841389015556442</v>
       </c>
       <c r="I4" t="n">
-        <v>0.658359115936932</v>
+        <v>0.65867391008924</v>
       </c>
       <c r="J4" t="n">
-        <v>0.657996933412559</v>
+        <v>0.658259163542218</v>
       </c>
       <c r="K4" t="n">
-        <v>0.702372413171302</v>
+        <v>0.702279283302204</v>
       </c>
       <c r="L4" t="n">
-        <v>0.770988593693527</v>
+        <v>0.770751009217637</v>
       </c>
       <c r="M4" t="n">
-        <v>0.923156195289579</v>
+        <v>0.925808443317861</v>
       </c>
       <c r="N4" t="n">
-        <v>0.561039368985046</v>
+        <v>0.561959539989434</v>
       </c>
     </row>
     <row r="5">
@@ -594,27 +594,27 @@
         <v>0.503463433986319</v>
       </c>
       <c r="D5" t="n">
-        <v>0.439017852180626</v>
+        <v>0.438889632437241</v>
       </c>
       <c r="E5" t="n">
-        <v>0.440622293330631</v>
+        <v>0.441403577339026</v>
       </c>
       <c r="F5" t="n">
-        <v>0.693184703376204</v>
+        <v>0.692723367340905</v>
       </c>
       <c r="G5"/>
       <c r="H5" t="n">
-        <v>0.510071822726581</v>
+        <v>0.511112243128561</v>
       </c>
       <c r="I5" t="n">
-        <v>0.457404153027743</v>
+        <v>0.456721110351558</v>
       </c>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5" t="n">
-        <v>0.402452424604714</v>
+        <v>0.402399638605333</v>
       </c>
     </row>
     <row r="6">
@@ -628,37 +628,37 @@
         <v>0.607364609309633</v>
       </c>
       <c r="D6" t="n">
-        <v>0.43434928853394</v>
+        <v>0.433525987240537</v>
       </c>
       <c r="E6" t="n">
-        <v>0.620480549810529</v>
+        <v>0.622061067971373</v>
       </c>
       <c r="F6" t="n">
-        <v>0.764082935010763</v>
+        <v>0.764034268173467</v>
       </c>
       <c r="G6" t="n">
-        <v>0.623852573023212</v>
+        <v>0.627378598315257</v>
       </c>
       <c r="H6" t="n">
-        <v>0.712781502518094</v>
+        <v>0.710473338089272</v>
       </c>
       <c r="I6" t="n">
-        <v>0.579281632810902</v>
+        <v>0.580152462807448</v>
       </c>
       <c r="J6" t="n">
-        <v>0.532287341883733</v>
+        <v>0.529014769509267</v>
       </c>
       <c r="K6" t="n">
-        <v>0.584541124690159</v>
+        <v>0.585754346694377</v>
       </c>
       <c r="L6" t="n">
-        <v>0.568089649263453</v>
+        <v>0.568451357363088</v>
       </c>
       <c r="M6" t="n">
-        <v>0.880404476411078</v>
+        <v>0.880923373592755</v>
       </c>
       <c r="N6" t="n">
-        <v>0.55410364808233</v>
+        <v>0.553829259151759</v>
       </c>
     </row>
     <row r="7">
